--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value32.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value32.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9760189174049282</v>
+        <v>2.293105840682983</v>
       </c>
       <c r="B1">
-        <v>1.026792442570301</v>
+        <v>2.399503707885742</v>
       </c>
       <c r="C1">
-        <v>1.149700398644595</v>
+        <v>2.748632669448853</v>
       </c>
       <c r="D1">
-        <v>1.771198956304169</v>
+        <v>4.356668949127197</v>
       </c>
       <c r="E1">
-        <v>3.581690498086183</v>
+        <v>4.871416568756104</v>
       </c>
     </row>
   </sheetData>
